--- a/data/test_sample8000.xlsx
+++ b/data/test_sample8000.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>-5.24322509765625</v>
@@ -455,7 +455,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>-5.28717041015625</v>
@@ -478,7 +478,7 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>-5.37506103515625</v>
@@ -524,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>-5.35308837890625</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>-5.35308837890625</v>
@@ -570,7 +570,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>-5.25421142578125</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>-5.42449951171875</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>-5.28167724609375</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-5.27618408203125</v>
@@ -662,7 +662,7 @@
         <v>45</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>-5.39154052734375</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>-5.39154052734375</v>
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>-5.37506103515625</v>
@@ -731,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>-5.37506103515625</v>
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-5.37506103515625</v>
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>-5.35308837890625</v>
@@ -800,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>-5.28717041015625</v>
@@ -846,7 +846,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>-5.39703369140625</v>
@@ -869,7 +869,7 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>-5.33660888671875</v>
@@ -879,29 +879,6 @@
       </c>
       <c r="G21">
         <v>0.023656011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>-5.23773193359375</v>
-      </c>
-      <c r="F22">
-        <v>90.8074951171875</v>
-      </c>
-      <c r="G22">
-        <v>0.001886148</v>
       </c>
     </row>
   </sheetData>
